--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2913735.620247381</v>
+        <v>2907383.877706249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7539251.184578678</v>
+        <v>7538661.205188258</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>322.3709515209707</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956565</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.8670242453037</v>
       </c>
       <c r="H3" t="n">
-        <v>21.24059023833656</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>54.04588894750097</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>310.5291426069051</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779093</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899646</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>222.5625216340495</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>199.1886700715803</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>148.1027728429461</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384598</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>14.20389759274102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,16 +1427,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507272</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173252</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414336</v>
@@ -1667,10 +1667,10 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>19.33415213001679</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135888</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003577</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281735</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415737</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806957</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313968</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.255848575249</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453463</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443475</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622523</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495916</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274702</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623485</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346797</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046308</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074548</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258521</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546432</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523159</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762372</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419577</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.1771097553677</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982361</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535093</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.775489959523</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734588</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409215</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803920896</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -3800,13 +3800,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>76.75325438412715</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214962</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>15.34907379845792</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.536926851937</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>1798.909703093381</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.468574310049</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565708</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8278554445739</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458668</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>242.2021271932824</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>735.5224189118112</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.464273687138</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687138</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579467</v>
+        <v>1676.72880279959</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710989</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851937</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851937</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851937</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851937</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.536926851937</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.536926851937</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.536926851937</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>2124.536926851937</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163321</v>
+        <v>657.7430775364683</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764243</v>
+        <v>507.0888470965605</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979046</v>
+        <v>376.9998797180408</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087924</v>
+        <v>240.5533888289285</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192416</v>
+        <v>116.1215827120603</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019192416</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703874</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>845.7959704975784</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1371.618859893433</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1371.618859893433</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1888.139142484414</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750001</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.68920664987</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848779</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527421</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898488</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031774</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817862</v>
+        <v>837.057294460961</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572935</v>
+        <v>657.7430775364683</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703874</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703874</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611403</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>505.4026254293744</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>450.8108184116967</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>450.8108184116967</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>450.8108184116967</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>450.8108184116967</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>227.69875722834</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1161.037917002192</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="C5" t="n">
-        <v>767.8624155051225</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8624155051225</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="E5" t="n">
-        <v>365.278890621667</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863152</v>
+        <v>538.3551089437412</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703874</v>
+        <v>125.1923534317444</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458668</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631912</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587712</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.088937983566</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851937</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851937</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851937</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792988</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792988</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.023371792988</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.023371792988</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.023371792988</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.023371792988</v>
+        <v>951.7038890847563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.532662713589</v>
+        <v>951.7038890847563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770697</v>
+        <v>736.06398896222</v>
       </c>
       <c r="C6" t="n">
-        <v>691.2024912371619</v>
+        <v>585.4097585223122</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586422</v>
+        <v>455.3207911437926</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695299</v>
+        <v>318.8743002546803</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378121</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512715</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173058</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.73384211316</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>2010.556731509015</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851937</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851937</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851937</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851937</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327674</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.653056118031</v>
+        <v>887.8603234031814</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="C7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703874</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468251</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>422.7799174887261</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>197.9692895755448</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>197.9692895755448</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>197.9692895755448</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.9692895755448</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.583586908615</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>665.4080854115459</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>665.4080854115459</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>665.4080854115459</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>248.5136469415237</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.583586908615</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>665.4295905742738</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4295905742738</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1567.337172261708</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1269.102352051827</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>978.6019045556835</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>670.9590609594164</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>349.0053037765825</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5036,7 +5036,7 @@
         <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2745.011542002407</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2468.953188257883</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2174.441264478128</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.891236685917</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445335</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5215,7 +5215,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993113</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2478.315967397137</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1521.202330875214</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5419,31 +5419,31 @@
         <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
         <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852095</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
         <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592129</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5543,7 +5543,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5589,25 +5589,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.8582737663419</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5662,28 +5662,28 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>806.619390679759</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296503</v>
@@ -5707,13 +5707,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
         <v>289.463261197452</v>
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5926,10 +5926,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838002</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012521</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750519</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,25 +6233,25 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517122</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6406,28 +6406,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026475</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,22 +6488,22 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6549,13 +6549,13 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423738</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267633</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5426273830454</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800796</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078644</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970973</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102495</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243444</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.13136915227</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491225</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281048</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382471</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398129</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986684</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5426273830454</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649992</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.239504859019</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229124</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233314</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804381</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913153</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886651</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806328</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5426273830454</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.5426273830454</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333732</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475589</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262089</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1117.948551297804</v>
+        <v>810.713451354371</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245663</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022241</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392292</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422773</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003227</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569365</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209171</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278992</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756981</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378684</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152416</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,13 +7339,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260104</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959968</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666462</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867572</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648936</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7451,10 +7451,10 @@
         <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2234.289913763314</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>2156.761373981367</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674404</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529118</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.707880260104</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959968</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666462</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867572</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3021.379967189023</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>3021.379967189023</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2747.822184147444</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.810831070634</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>2156.761373981368</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529112</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022405</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160341</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7843,13 +7843,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.688734882098</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>262.8776925020512</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622961</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532431</v>
       </c>
       <c r="P3" t="n">
-        <v>89.13658988258014</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.345144304511</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107116</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507684</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>183.3496847658852</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622961</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671509</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O6" t="n">
-        <v>207.8190693362852</v>
+        <v>255.5255418589645</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
-        <v>603.2495781888792</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,10 +8775,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>571.8744206036794</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>220.8844470939645</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>300.8359558898193</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385727</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>253.9636180770622</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213462</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.3057081342458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531174</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>141.3792890010575</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>659913.84025436</v>
+        <v>659613.0664474799</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>659913.84025436</v>
+        <v>659613.0664474799</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625678.576796425</v>
+        <v>625678.5767964249</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>613129.4055174134</v>
+      </c>
+      <c r="C2" t="n">
         <v>613129.4055174132</v>
       </c>
-      <c r="C2" t="n">
-        <v>613129.405517413</v>
-      </c>
       <c r="D2" t="n">
-        <v>613129.4055174134</v>
+        <v>613129.4055174132</v>
       </c>
       <c r="E2" t="n">
         <v>576218.8171230101</v>
       </c>
       <c r="F2" t="n">
-        <v>576218.8171230102</v>
+        <v>576218.8171230101</v>
       </c>
       <c r="G2" t="n">
+        <v>613129.4055174126</v>
+      </c>
+      <c r="H2" t="n">
         <v>613129.4055174127</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>613129.4055174126</v>
       </c>
-      <c r="I2" t="n">
-        <v>613129.4055174128</v>
-      </c>
       <c r="J2" t="n">
-        <v>613129.4055174129</v>
+        <v>613129.405517413</v>
       </c>
       <c r="K2" t="n">
-        <v>613129.4055174133</v>
+        <v>613129.405517413</v>
       </c>
       <c r="L2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174139</v>
       </c>
       <c r="M2" t="n">
-        <v>613129.4055174127</v>
+        <v>613129.405517413</v>
       </c>
       <c r="N2" t="n">
         <v>613129.4055174127</v>
       </c>
       <c r="O2" t="n">
+        <v>578731.2680373654</v>
+      </c>
+      <c r="P2" t="n">
         <v>578731.2680373656</v>
-      </c>
-      <c r="P2" t="n">
-        <v>578731.2680373657</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343504</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602682</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301436</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469663</v>
+        <v>215329.5897923931</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670134</v>
+        <v>46725.80335481257</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.2769343685</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301568</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066576</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066576</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26436,22 +26436,22 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718596</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718596</v>
-      </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="O4" t="n">
         <v>111818.0002629859</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814945</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446763</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187903.9994882557</v>
+        <v>191353.1238819102</v>
       </c>
       <c r="C6" t="n">
-        <v>365899.296622606</v>
+        <v>361002.1297584597</v>
       </c>
       <c r="D6" t="n">
-        <v>359027.7755369319</v>
+        <v>351291.4863135401</v>
       </c>
       <c r="E6" t="n">
-        <v>280510.2121123944</v>
+        <v>280401.6515582931</v>
       </c>
       <c r="F6" t="n">
-        <v>410963.1432501066</v>
+        <v>410854.5826960053</v>
       </c>
       <c r="G6" t="n">
-        <v>391116.9753214022</v>
+        <v>391116.9753214021</v>
       </c>
       <c r="H6" t="n">
+        <v>420211.9311944166</v>
+      </c>
+      <c r="I6" t="n">
+        <v>420211.9311944164</v>
+      </c>
+      <c r="J6" t="n">
+        <v>198642.5729992408</v>
+      </c>
+      <c r="K6" t="n">
+        <v>413972.162791634</v>
+      </c>
+      <c r="L6" t="n">
+        <v>371028.9786485742</v>
+      </c>
+      <c r="M6" t="n">
+        <v>376428.9592488604</v>
+      </c>
+      <c r="N6" t="n">
         <v>420211.9311944165</v>
       </c>
-      <c r="I6" t="n">
-        <v>420211.9311944167</v>
-      </c>
-      <c r="J6" t="n">
-        <v>192126.2878446676</v>
-      </c>
-      <c r="K6" t="n">
-        <v>413972.1627916342</v>
-      </c>
-      <c r="L6" t="n">
-        <v>375077.8158590462</v>
-      </c>
-      <c r="M6" t="n">
-        <v>377480.6542600481</v>
-      </c>
-      <c r="N6" t="n">
-        <v>420211.9311944166</v>
-      </c>
       <c r="O6" t="n">
-        <v>392609.3001616722</v>
+        <v>392508.1291690835</v>
       </c>
       <c r="P6" t="n">
-        <v>411592.8599918291</v>
+        <v>411491.6889992406</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="L2" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880674</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126795</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304847</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087667</v>
+        <v>58.40725419351571</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165919</v>
+        <v>14.33013548902011</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.729449787696</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.2778945563108</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559185</v>
+        <v>646.8007142757117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455255</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126795</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304847</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.2778945563108</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>66.87279496112797</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857389</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>43.99219550355051</v>
       </c>
       <c r="H3" t="n">
-        <v>66.17385199706851</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>228.5385148930171</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>102.1963514784169</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713833</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408415</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>40.75703009333452</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27862,16 +27862,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.8424578852966</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>20.40029391172456</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634528467</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>128.2979821082774</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>26.78466270501588</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>103.2865954513699</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539252</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539252</v>
+        <v>13.98970481639273</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465267755</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693167</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="K46" t="n">
-        <v>36.24905561693102</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286063</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>113.1526409043239</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643542</v>
       </c>
       <c r="P3" t="n">
-        <v>2.053225063265486</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740193</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.78584734178877</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129843</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129843</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O6" t="n">
-        <v>115.1315104473963</v>
+        <v>162.8379829700756</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
-        <v>450.0014084583875</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>486.5023077495127</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716073</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>210.9596397950874</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221362</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>578.3007233561074</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988363</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>289.9992824624291</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659191</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>135.5123342397978</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407352</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759452</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.626405728884</v>
+        <v>199.0297391913515</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897564</v>
+        <v>280.3780833636431</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565495</v>
       </c>
       <c r="M37" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>6.174568144772601</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918894</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>118.910713303741</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
         <v>262.2523342922519</v>
@@ -38184,16 +38184,16 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
